--- a/Gestão/REQUISITOS.xlsx
+++ b/Gestão/REQUISITOS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakar\Desktop\BandTec\Primeiro semestre\TurtleLife\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakar\Desktop\BandTec\Primeiro semestre\TurtleLife\TurtleLife\Gestão\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
   <si>
     <t>#Código</t>
   </si>
@@ -101,9 +101,6 @@
     <t xml:space="preserve">Criar um layout intuitivo </t>
   </si>
   <si>
-    <t>Relatorio de todos os dados.</t>
-  </si>
-  <si>
     <t>Separado em Cliente e Admin. Sendo logado e entrando em paginas diferentes após autenticação.</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Todos os dados (temperaturas e usuários) coletados serem enviados ao banco.</t>
   </si>
   <si>
-    <t>Exibição de dados (temperatura) para o cliente que necessita do mesmo.</t>
-  </si>
-  <si>
     <t>Modo de que o site possa estar seguro o máximo possível. (PSI)</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t xml:space="preserve">O site institucional deve ter o logo do projeto </t>
   </si>
   <si>
-    <t>Deve-se ter uma opção de cadastro logo abaixo do login</t>
-  </si>
-  <si>
     <t>Deve-se ter mais de um gráfico para comparação de informações</t>
   </si>
   <si>
@@ -149,18 +140,12 @@
     <t>O site permite que o administrador atualize as informações diariamente</t>
   </si>
   <si>
-    <t>A atualização de dados deve ser rápida para amostra na apresentação</t>
-  </si>
-  <si>
     <t xml:space="preserve">O site deve possuir botões </t>
   </si>
   <si>
     <t>Banco de dados seguro e confiável</t>
   </si>
   <si>
-    <t>Os botões devem dar acesso a página de gráficos</t>
-  </si>
-  <si>
     <t>A confirmação de entrada de cadastro e login deve-se dar por um botão</t>
   </si>
   <si>
@@ -173,15 +158,6 @@
     <t>Delimitar o gráfico com uma cor especifica para melhor visualização</t>
   </si>
   <si>
-    <t>Utilizar API de login através de contas do Google para login</t>
-  </si>
-  <si>
-    <t>Alterar cores de acordo com temperaturas especificas (temperatura &lt;5ºC cor azul e &gt;5ºC vermelha)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir icones para compartilhamento em Redes sociais. </t>
-  </si>
-  <si>
     <t>Gerenciamento do Github</t>
   </si>
   <si>
@@ -191,18 +167,12 @@
     <t>Diagrama da solução</t>
   </si>
   <si>
-    <t>Logomarca do projeto</t>
-  </si>
-  <si>
     <t>Simulador financeiro individual</t>
   </si>
   <si>
     <t>Relatorio para entregar ao Brandão</t>
   </si>
   <si>
-    <t>Escolher e Usar o simulador de para aquisição (registros) da temperatura</t>
-  </si>
-  <si>
     <t>RNF</t>
   </si>
   <si>
@@ -309,6 +279,108 @@
   </si>
   <si>
     <t>Regra de negócio (obrigatório)</t>
+  </si>
+  <si>
+    <t>Escolher e Usar o simulador de aquisição (registros) da temperatura</t>
+  </si>
+  <si>
+    <t>Relatorio mensal de todos os dados em gráfico.</t>
+  </si>
+  <si>
+    <t>Deve-se ter uma opção de cadastro</t>
+  </si>
+  <si>
+    <t>A atualização de dados deve ser rápida para mostrar na apresentação</t>
+  </si>
+  <si>
+    <t>Utilizar API de login através de contas do Google</t>
+  </si>
+  <si>
+    <t>Alterar cores de acordo com temperaturas especificas.</t>
+  </si>
+  <si>
+    <t>Incluir icones para compartilhamento em Redes sociais do Siite Institucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu de navegação </t>
+  </si>
+  <si>
+    <t>Campo para contato</t>
+  </si>
+  <si>
+    <t>Aparecer o calculo de acordo com o ramo da empresa selecionada.</t>
+  </si>
+  <si>
+    <t>Campo para pesquisa de dados Dashboard</t>
+  </si>
+  <si>
+    <t>Icone/botão para logout</t>
+  </si>
+  <si>
+    <t>Icone/botão para campo de notificações</t>
+  </si>
+  <si>
+    <t>Inserir campo para upload de imagem no cadastro</t>
+  </si>
+  <si>
+    <t>Tela para realizar o pagamento após o cadastro</t>
+  </si>
+  <si>
+    <t>Os botão login/cadastro deve dar acesso a página de cadastro/dashboard de acordo com o cadastro</t>
+  </si>
+  <si>
+    <t>Tabelas com a quantidade de tartarugas desejada por sexo</t>
+  </si>
+  <si>
+    <t>Tela de estatisticas com no minimo 2 gráficos</t>
+  </si>
+  <si>
+    <t>Tela para controle financeiro</t>
+  </si>
+  <si>
+    <t>icone para configurações</t>
+  </si>
+  <si>
+    <t>icone para gerar relatórios em PDF Dashboard e histórico</t>
+  </si>
+  <si>
+    <t>RF16</t>
+  </si>
+  <si>
+    <t>RF17</t>
+  </si>
+  <si>
+    <t>RF18</t>
+  </si>
+  <si>
+    <t>RF19</t>
+  </si>
+  <si>
+    <t>RNF20</t>
+  </si>
+  <si>
+    <t>RNF21</t>
+  </si>
+  <si>
+    <t>RNF22</t>
+  </si>
+  <si>
+    <t>RNF23</t>
+  </si>
+  <si>
+    <t>RNF24</t>
+  </si>
+  <si>
+    <t>RNF25</t>
+  </si>
+  <si>
+    <t>RNF26</t>
+  </si>
+  <si>
+    <t>RNF27</t>
+  </si>
+  <si>
+    <t>Dar a opção para o usuario alterar a cor do tema Dashboard em configuração</t>
   </si>
 </sst>
 </file>
@@ -340,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,14 +542,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,15 +583,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,16 +882,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
@@ -813,11 +907,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
+      <c r="E1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -829,76 +923,76 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="22"/>
+      <c r="E2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="24"/>
+      <c r="E3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -907,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>4</v>
@@ -918,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
@@ -929,386 +1023,518 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>63</v>
+      <c r="B10" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>107</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>108</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>109</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
+      <c r="A24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
+      <c r="A27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="A29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C34" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>24</v>
+      <c r="A35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>62</v>
+      <c r="A36" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="8" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Gestão/REQUISITOS.xlsx
+++ b/Gestão/REQUISITOS.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakar\Desktop\BandTec\Primeiro semestre\TurtleLife\TurtleLife\Gestão\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eeb03d78f3bc2b8/Área de Trabalho/Sprint 2/Sprint-2-turtlelife/Gestão/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_1000D914901D446D3FA791519EFFBD76FE2AA5E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{44AD89EE-8475-4EA6-AC34-7640D50B3F95}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="116">
   <si>
     <t>#Código</t>
   </si>
@@ -92,9 +94,6 @@
     <t>RF14</t>
   </si>
   <si>
-    <t>RF15</t>
-  </si>
-  <si>
     <t>Rápida conexão para não se tornar um site ruim e melhor UX.</t>
   </si>
   <si>
@@ -110,9 +109,6 @@
     <t>Todos os dados (temperaturas e usuários) coletados serem enviados ao banco.</t>
   </si>
   <si>
-    <t>Modo de que o site possa estar seguro o máximo possível. (PSI)</t>
-  </si>
-  <si>
     <t>Relatório de bugs para que não tenha nenhuma falha. (tester)</t>
   </si>
   <si>
@@ -149,12 +145,6 @@
     <t>A confirmação de entrada de cadastro e login deve-se dar por um botão</t>
   </si>
   <si>
-    <t>Site deve conter uma interface ilustrativa com fotos dos setores da empresa</t>
-  </si>
-  <si>
-    <t>Software deve obter os gráficos e converte-los em estátisticas</t>
-  </si>
-  <si>
     <t>Delimitar o gráfico com uma cor especifica para melhor visualização</t>
   </si>
   <si>
@@ -167,9 +157,6 @@
     <t>Diagrama da solução</t>
   </si>
   <si>
-    <t>Simulador financeiro individual</t>
-  </si>
-  <si>
     <t>Relatorio para entregar ao Brandão</t>
   </si>
   <si>
@@ -221,12 +208,6 @@
     <t>RNF10</t>
   </si>
   <si>
-    <t>RNF11</t>
-  </si>
-  <si>
-    <t>RNF12</t>
-  </si>
-  <si>
     <t>RNF13</t>
   </si>
   <si>
@@ -281,9 +262,6 @@
     <t>Regra de negócio (obrigatório)</t>
   </si>
   <si>
-    <t>Escolher e Usar o simulador de aquisição (registros) da temperatura</t>
-  </si>
-  <si>
     <t>Relatorio mensal de todos os dados em gráfico.</t>
   </si>
   <si>
@@ -293,15 +271,9 @@
     <t>A atualização de dados deve ser rápida para mostrar na apresentação</t>
   </si>
   <si>
-    <t>Utilizar API de login através de contas do Google</t>
-  </si>
-  <si>
     <t>Alterar cores de acordo com temperaturas especificas.</t>
   </si>
   <si>
-    <t>Incluir icones para compartilhamento em Redes sociais do Siite Institucional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menu de navegação </t>
   </si>
   <si>
@@ -323,9 +295,6 @@
     <t>Inserir campo para upload de imagem no cadastro</t>
   </si>
   <si>
-    <t>Tela para realizar o pagamento após o cadastro</t>
-  </si>
-  <si>
     <t>Os botão login/cadastro deve dar acesso a página de cadastro/dashboard de acordo com o cadastro</t>
   </si>
   <si>
@@ -381,12 +350,36 @@
   </si>
   <si>
     <t>Dar a opção para o usuario alterar a cor do tema Dashboard em configuração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site deve conter uma interface ilustrativa </t>
+  </si>
+  <si>
+    <t>Utilizar API de login através de e-mail</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>Usar o simulador de aquisição (registros) da temperatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software deve obter os gráficos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tela para realizar o pagamento </t>
+  </si>
+  <si>
+    <t>Incluir icones para compartilhamento em Redes sociais do Site Institucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de execução </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,6 +599,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,6 +628,878 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Planilha1!$I$1:$J$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Significado</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Requisito Funcional</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Requisito Não-Funcional</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Regra de negócio (obrigatório)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Legendas</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sigla</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>RNF</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>RN</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$K$1:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-392F-4DE8-8719-D99FE51CEAF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1339033951"/>
+        <c:axId val="1508212831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1339033951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508212831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1508212831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1339033951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{29176789-6434-4C58-8819-72EFDE8BB9D2}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9642432" cy="6002055"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98653484-7166-4FC1-9EE5-C5D10D27EE14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,11 +1764,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,11 +1776,13 @@
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21" style="33" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,13 +1792,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -923,146 +1814,177 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="33">
+        <v>13</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="36"/>
+      <c r="I3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="33">
+        <v>13</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D5" s="33">
+        <v>5</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -1072,477 +1994,569 @@
       <c r="C13" s="18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
+      <c r="D15" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D18" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="D27" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B28" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>87</v>
+      <c r="B30" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="18" t="s">
+      <c r="D35" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D39" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="18" t="s">
+      <c r="D41" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>90</v>
+      <c r="D44" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="20" t="s">
+      <c r="D51" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Gestão/REQUISITOS.xlsx
+++ b/Gestão/REQUISITOS.xlsx
@@ -574,6 +574,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,18 +611,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1767,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1776,7 @@
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="21" style="33" customWidth="1"/>
+    <col min="4" max="4" width="21" style="24" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
@@ -1798,11 +1798,11 @@
       <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1814,35 +1814,35 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="24">
         <v>13</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="27"/>
       <c r="I3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1854,16 +1854,16 @@
       <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="24">
         <v>13</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="32"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1875,16 +1875,16 @@
       <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="24">
         <v>5</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -1896,7 +1896,7 @@
       <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="24">
         <v>13</v>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="24">
         <v>8</v>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="24">
         <v>3</v>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="24">
         <v>3</v>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="24">
         <v>3</v>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       <c r="C11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="24">
         <v>8</v>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       <c r="C12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="24">
         <v>3</v>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       <c r="C13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       <c r="C17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       <c r="C18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       <c r="C19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="24">
         <v>8</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       <c r="C21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       <c r="C23" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="24">
         <v>5</v>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       <c r="C24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="C25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       <c r="C26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       <c r="C27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="24">
         <v>5</v>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="C28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       <c r="C30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       <c r="C31" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       <c r="C32" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       <c r="C33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       <c r="C34" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       <c r="C37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       <c r="C40" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="24">
         <v>13</v>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="24">
         <v>5</v>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="33">
+      <c r="D44" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="33">
+      <c r="D45" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       <c r="C46" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="33">
+      <c r="D46" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       <c r="C48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="33">
+      <c r="D48" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       <c r="C49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="33">
+      <c r="D49" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="33">
+      <c r="D50" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="33">
+      <c r="D51" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       <c r="C52" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="33">
+      <c r="D52" s="24">
         <v>3</v>
       </c>
     </row>
